--- a/biology/Histoire de la zoologie et de la botanique/José_Perez_Pombal_Jr/José_Perez_Pombal_Jr..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/José_Perez_Pombal_Jr/José_Perez_Pombal_Jr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Perez_Pombal_Jr.</t>
+          <t>José_Perez_Pombal_Jr.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Perez Pombal Jr. est un herpétologiste brésilien, né en 1966.
 Diplômé de l'Universidade Estadual Paulista Júlio de Mesquita Filho, Il travaille au Museu Nacional da Universidade Federal do Rio de Janeiro.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Perez_Pombal_Jr.</t>
+          <t>José_Perez_Pombal_Jr.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brachycephalus pombali Alves, Ribeiro, Haddad &amp; Reis, 2006
 Rhinella pombali (Baldissera, Caramaschi &amp; Haddad, 2004)
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Perez_Pombal_Jr.</t>
+          <t>José_Perez_Pombal_Jr.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aparasphenodon bokermanni
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Perez_Pombal_Jr.</t>
+          <t>José_Perez_Pombal_Jr.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>Référence biographique et bibliographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(port) CV pro
 Pombal est l’abréviation habituelle de José Perez Pombal Jr. en zoologie.
